--- a/ACE_UseCase_Update.xlsx
+++ b/ACE_UseCase_Update.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>UseCase  : JMS (OrderQueue and ExecutedOrderQueue)</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Hi</t>
+  </si>
+  <si>
+    <t>sangeeta sahu</t>
+  </si>
+  <si>
+    <t>Ravi kant sharma</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +484,35 @@
       </c>
       <c r="D4" s="1">
         <f ca="1">+NOW()</f>
-        <v>42710.645992592596</v>
+        <v>42711.684783101853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42711.684027777781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42711.684027777781</v>
       </c>
     </row>
   </sheetData>

--- a/ACE_UseCase_Update.xlsx
+++ b/ACE_UseCase_Update.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="JavaJMS" sheetId="1" r:id="rId1"/>
-    <sheet name="Core" sheetId="2" r:id="rId2"/>
-    <sheet name="Spring" sheetId="3" r:id="rId3"/>
-    <sheet name="Hibernate" sheetId="4" r:id="rId4"/>
-    <sheet name="Multithreading" sheetId="5" r:id="rId5"/>
+    <sheet name="Multithreading" sheetId="5" r:id="rId2"/>
+    <sheet name="Core" sheetId="2" r:id="rId3"/>
+    <sheet name="Spring" sheetId="3" r:id="rId4"/>
+    <sheet name="Hibernate" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>UseCase  : JMS (OrderQueue and ExecutedOrderQueue)</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>Hi</t>
-  </si>
-  <si>
-    <t>sangeeta sahu</t>
-  </si>
-  <si>
-    <t>Ravi kant sharma</t>
   </si>
 </sst>
 </file>
@@ -428,11 +422,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -484,35 +476,7 @@
       </c>
       <c r="D4" s="1">
         <f ca="1">+NOW()</f>
-        <v>42711.684783101853</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>42711.684027777781</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>42711.684027777781</v>
+        <v>42711.681136458334</v>
       </c>
     </row>
   </sheetData>
@@ -528,12 +492,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <f ca="1">+NOW()</f>
+        <v>42711.681136342595</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -557,6 +575,18 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -566,18 +596,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ACE_UseCase_Update.xlsx
+++ b/ACE_UseCase_Update.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>UseCase  : JMS (OrderQueue and ExecutedOrderQueue)</t>
   </si>
@@ -51,13 +51,82 @@
   </si>
   <si>
     <t>Hi</t>
+  </si>
+  <si>
+    <t>Saurabh Gupta</t>
+  </si>
+  <si>
+    <t>Sanjay Singh</t>
+  </si>
+  <si>
+    <t>Sangeeta Sahu</t>
+  </si>
+  <si>
+    <t>Ravi Kant Sharma</t>
+  </si>
+  <si>
+    <t>Dharmendra Kumar</t>
+  </si>
+  <si>
+    <t>Ajay Saxena</t>
+  </si>
+  <si>
+    <t>Ankit Gupta</t>
+  </si>
+  <si>
+    <t>Ankur Maheshwari</t>
+  </si>
+  <si>
+    <t>Ayush Saxena</t>
+  </si>
+  <si>
+    <t>Chanda Kumari</t>
+  </si>
+  <si>
+    <t>Dharmendra Patel</t>
+  </si>
+  <si>
+    <t>Mohit Gupta</t>
+  </si>
+  <si>
+    <t>Mukesh Singh</t>
+  </si>
+  <si>
+    <t>Mukul Gupta</t>
+  </si>
+  <si>
+    <t>Neeraj Kumar</t>
+  </si>
+  <si>
+    <t>Nitin Singh</t>
+  </si>
+  <si>
+    <t>Nittin Sharma</t>
+  </si>
+  <si>
+    <t>Prem Singh</t>
+  </si>
+  <si>
+    <t>Subhash Kumar</t>
+  </si>
+  <si>
+    <t>Sunny Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivek Tyagi </t>
+  </si>
+  <si>
+    <t>Gaurav Tyagi</t>
+  </si>
+  <si>
+    <t>Piyush Utreja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +157,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -115,12 +190,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,13 +559,235 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <f ca="1">+NOW()</f>
-        <v>42711.681136458334</v>
+        <v>42710.704953703702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42710.684120370373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>42710.701481481483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>42710.701481481483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>42710.701481481483</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>42710.208333333336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="6">
+        <v>42710.208333333336</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B5:D27">
+    <sortCondition ref="B4"/>
+  </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C6:C1048576">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -492,9 +798,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -542,11 +850,257 @@
         <v>9</v>
       </c>
       <c r="D4" s="1">
-        <f ca="1">+NOW()</f>
-        <v>42711.681136342595</v>
+        <v>42711.70565891204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42711.70565891204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>42711.704861111109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6">
+        <v>42711.684027777781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>42711.718854166669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6">
+        <v>42711.684027777781</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6">
+        <v>42711.684027777781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>42711.70565891204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42711.70565891204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>42711.70565891204</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B4:D27">
+    <sortCondition ref="B27"/>
+  </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4">
       <formula1>"Yes,No"</formula1>
